--- a/Config/EN/Robots.xlsx
+++ b/Config/EN/Robots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B27F524-DD4E-42FD-8F2C-3EE51A876673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A580450-FF00-40EA-B158-620AEBC45A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Type</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Machine Id</t>
+  </si>
+  <si>
+    <t>OU Id or Name</t>
   </si>
 </sst>
 </file>
@@ -134,17 +137,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -280,6 +272,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -299,10 +302,10 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine Id" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Type" totalsRowFunction="count" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine Id" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Type" totalsRowFunction="count" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Enviroments"/>
     <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="OU Id"/>
     <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="OU  Name"/>
@@ -319,9 +322,9 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Value"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="OU ID or Name" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Asset Id" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="OU ID or Name" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Asset Id" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -334,9 +337,9 @@
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Type"/>
     <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Value"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="OU ID or Name" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Asset Id" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Result" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="OU ID or Name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Asset Id" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Result" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -346,10 +349,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D101" totalsRowShown="0">
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="OU ID or Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Asset Id" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="OU Id or Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Id" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2500,7 +2503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2516,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>

--- a/Config/EN/Robots.xlsx
+++ b/Config/EN/Robots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A580450-FF00-40EA-B158-620AEBC45A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC42AE0-8343-4044-B608-C429962E45A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Type</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Asset Id</t>
   </si>
   <si>
-    <t>OU Id</t>
-  </si>
-  <si>
     <t>OU ID or Name</t>
   </si>
   <si>
@@ -68,19 +65,34 @@
     <t>Enviroments</t>
   </si>
   <si>
-    <t>Robot Id</t>
-  </si>
-  <si>
     <t>OU  Name</t>
   </si>
   <si>
     <t>Machine Name</t>
   </si>
   <si>
-    <t>Machine Id</t>
+    <t>Password</t>
   </si>
   <si>
-    <t>OU Id or Name</t>
+    <t>Robot ID</t>
+  </si>
+  <si>
+    <t>Machine ID</t>
+  </si>
+  <si>
+    <t>OU ID</t>
+  </si>
+  <si>
+    <t>Robot ID or Name</t>
+  </si>
+  <si>
+    <t>Machine Name or ID</t>
+  </si>
+  <si>
+    <t>Robot Name</t>
+  </si>
+  <si>
+    <t>Robot Type</t>
   </si>
 </sst>
 </file>
@@ -136,18 +148,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -248,6 +249,39 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -301,30 +335,33 @@
   <autoFilter ref="A1:J101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine Id" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Type" totalsRowFunction="count" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Enviroments"/>
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="OU Id"/>
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="OU ID"/>
     <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="OU  Name"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot Id"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F101" totalsRowShown="0">
-  <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Value"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="OU ID or Name" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Asset Id" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0">
+  <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name or ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="OU ID or Name" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -337,21 +374,20 @@
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Type"/>
     <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Value"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="OU ID or Name" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Asset Id" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Result" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="OU ID or Name" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Asset Id" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Result" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D101" totalsRowShown="0">
-  <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="OU Id or Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Id" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
+  <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="OU ID or Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot ID or Name" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -623,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -642,34 +678,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
+      <c r="H1" t="s">
+        <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1288,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1296,638 +1332,856 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D84" s="1"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D87" s="1"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D94" s="1"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D96" s="1"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D97" s="1"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D98" s="1"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D99" s="1"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D100" s="1"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D101" s="1"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B102:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{3B11C794-A5DC-485E-88B4-884B1F78DCF8}">
+      <formula1>"Standard,Floating"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{4C206023-C67F-4C07-AC83-8EABE4C66DF7}">
+      <formula1>"Attended,Unattended,Development,NonProduction"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1967,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2501,509 +2755,503 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/EN/Robots.xlsx
+++ b/Config/EN/Robots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC42AE0-8343-4044-B608-C429962E45A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D8D28C-D07A-4620-95D5-86FA235535D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Enviroments</t>
   </si>
   <si>
-    <t>OU  Name</t>
-  </si>
-  <si>
     <t>Machine Name</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Robot Type</t>
+  </si>
+  <si>
+    <t>OU Name</t>
   </si>
 </sst>
 </file>
@@ -342,7 +342,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Enviroments"/>
     <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="OU ID"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="OU  Name"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="OU Name"/>
     <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -681,31 +681,31 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1347,25 +1347,25 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -2772,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2784,7 +2784,8 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4"/>

--- a/Config/EN/Robots.xlsx
+++ b/Config/EN/Robots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D8D28C-D07A-4620-95D5-86FA235535D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C18D22-3739-49AA-81D3-2CD09EBA51B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/EN/Robots.xlsx
+++ b/Config/EN/Robots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C18D22-3739-49AA-81D3-2CD09EBA51B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F62893-B4B4-4C9F-A171-FBFC42A0C57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Type</t>
   </si>
@@ -80,9 +80,6 @@
     <t>OU ID</t>
   </si>
   <si>
-    <t>Robot ID or Name</t>
-  </si>
-  <si>
     <t>Machine Name or ID</t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>OU Name</t>
+  </si>
+  <si>
+    <t>OU Name or ID</t>
+  </si>
+  <si>
+    <t>Robot Name or ID</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username"/>
     <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="OU ID or Name" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="OU Name or ID" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="6"/>
   </tableColumns>
@@ -386,8 +389,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="OU ID or Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot ID or Name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="OU Name or ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Robot Name or ID" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -681,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -693,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -702,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1347,13 +1350,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1362,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -2769,37 +2772,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5"/>
-      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="2"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/Config/EN/Robots.xlsx
+++ b/Config/EN/Robots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C1CA9-D205-4643-812E-3FBA48908825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6E32EC-31B6-435E-949F-F2FBB2E41E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Organization Unit ID</t>
   </si>
@@ -128,7 +128,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -280,17 +280,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -420,32 +409,31 @@
   <autoFilter ref="A1:J101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="Organization Unit ID"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Organization Unit Name" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="Organization Unit Name" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="Robot ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Robot Name" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="Machine ID" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Machine Name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Environments" dataDxfId="20"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hosting Type" totalsRowLabel="Total"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Robot Type" totalsRowFunction="count" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Username" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J93" totalsRowShown="0">
-  <autoFilter ref="A1:J93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I93" totalsRowShown="0">
+  <autoFilter ref="A1:I93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="Hosting Type" dataDxfId="17"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Robot Name"/>
-    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="Machine Name" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Robot Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Unit Name" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{642DAEB8-3A59-4D59-9A88-C6601D245B6F}" name="Environments" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Username" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="Password" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Unit Name" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Robot ID" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Result" dataDxfId="11"/>
   </tableColumns>
@@ -749,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1432,9 +1420,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1446,12 +1434,11 @@
     <col min="5" max="5" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1474,839 +1461,744 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
